--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n422\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="governance18" sheetId="4" r:id="rId1"/>
+    <sheet name="governance16" sheetId="3" r:id="rId1"/>
+    <sheet name="governance18" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="data2018" localSheetId="0">governance18!$A$1:$H$203</definedName>
+    <definedName name="data2016" localSheetId="0">governance16!$A$1:$H$203</definedName>
+    <definedName name="data2018" localSheetId="1">governance18!$A$1:$H$203</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,8 +33,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="data2018" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2018.csv" comma="1">
+  <connection id="1" name="data20161" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2016.csv" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="data2018" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2018.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -50,12 +67,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="418">
   <si>
     <t>Country</t>
   </si>
   <si>
     <t>iso3</t>
+  </si>
+  <si>
+    <t>voice2016</t>
+  </si>
+  <si>
+    <t>absViolence2016</t>
+  </si>
+  <si>
+    <t>govEffect2016</t>
+  </si>
+  <si>
+    <t>regQual2016</t>
+  </si>
+  <si>
+    <t>ruloLaw2016</t>
+  </si>
+  <si>
+    <t>contCorrup2016</t>
   </si>
   <si>
     <t>Aruba</t>
@@ -1291,7 +1326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1337,15 +1372,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data2018" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data2016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data2018" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1613,21 +1649,5322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H203"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.2793039083480799</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.2841992378234801</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.89322936534881503</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.3475527763366599</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.2617449760437001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.2858484983444201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.17653536796569</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.41341936588287</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.8605871200561499</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.87144285440444902</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.57792460918426</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.2287786006927399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1.0398427248001001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-2.6710538864135698</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1.22636330127716</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1.32768762111663</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1.4981898069381701</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1.52635169029235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1.14293253421783</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.31589883565902699</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1.0359029769897401</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1.0013797283172601</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1.08732044696807</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1.43970346450805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.16994921863078999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.344644665718078</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.32703818380832E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.18902206420898399</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.328867256641387</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-0.40526595711708002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1.05042135715484</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.56474894285202004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.41592800617218</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.97259563207626298</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.84904098510742099</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.17170858383178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.49256306886672901</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.20462550222873599</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.16212919354438701</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.469625324010849</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.393605947494506</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-0.28404125571250899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.579334616661071</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.66226381063461304</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.158175304532051</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.250055581331253</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.1191296428442</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.57195448875427202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.63360273838043202</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.87860721349716098</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.26549062132835299</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.341461151838302</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.508841812610626</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.69374853372573797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.35101246833801</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.04795801639556</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.56850945949554</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.8969656229019101</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.75552093982696</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.8161151409149101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.3374173641204801</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.90963876247405995</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.5119049549102701</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.44043624401092</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.8149665594100901</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.5485370159149101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1.56310057640075</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.80387908220291104</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.165613234043121</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.28202280402183499</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.51986140012741</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-0.83850389719009299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1.54964911937713</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1.97072076797485</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.4416862726211499</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.82525885105133001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.4602371454238801</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1.2457022666931099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.3769618272781301</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.441367298364639</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.3262134790420499</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.3406835794448799</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.39096474647521</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.63870513439178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.41331458091735801</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-2.0271716639399498E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.56419026851653997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.52789437770843495</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-0.60859251022338801</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.51343780755996704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.33564807474613E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.86737585067749001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.56416857242584195</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.39738291501998901</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.44127917289733798</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.14807862043380701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-0.58529806137084905</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1.2619367837905799</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.67865896224975497</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.79668009281158403</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.66349190473556496</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-0.85708969831466597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.40110850334167403</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.7333264052867806E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.29589706659317</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.65851771831512396</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-6.1471603810787201E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-0.16844329237937899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.3721343278884801</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.79342567920684803</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.32784277200698803</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.60823905467987005</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.45638054609298701</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.5862377360463101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.85209429264068604</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.97541874647140503</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.71953326463699296</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.257589280605316</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.260312139987945</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.10805356502532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-0.132196009159088</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.39783883094787498</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-0.39343735575675898</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-0.16664782166480999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.216729551553726</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-0.45645621418952897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-1.33949398994445</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.14228147268295199</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.47792011499404902</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.94126141071319502</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.71603929996490401</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.25707009434700001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.570770382881164</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.0622137039899798E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-0.67591786384582497</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-0.51235938072204501</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-0.86373311281204201</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-0.242828339338302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-3.6925524473190301E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.24886636435985501</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.56706273555755604</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.92409479618072499</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.20055723190307</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.72439348697662298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.45056623220443698</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.37720540165901101</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-0.173778265714645</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-0.207315519452095</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-0.15722280740737901</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-0.38144040107727001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0857307910919101</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.97660988569259599</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.0821715593337999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.48106494545936501</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.79512315988540605</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.25736439228057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-0.90106081962585405</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.1541720628738401</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.0841768980026201</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.59339743852615301</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.56169420480728105</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.56841975450515703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-2.5974635034799499E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.12329673767089</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.50050979852676303</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-0.66513746976852395</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.49350085854530301</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.12650382518768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1.79464554786682</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-2.4189655780792201</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-2.3533821105957</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1.85826110839843</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1.92947161197662</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-1.7148063182830799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.39430168271064697</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.99456000328063898</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.529832243919372</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.52848738431930498</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.53372561931610096</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.92988622188568104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1.0865451097488401</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1.78926682472229</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1.7717036008834799</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1.42730677127838</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1.8164989948272701</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-1.28000152111053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.4479405879974301</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.25605857372283</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.78146147727966</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.73881983757019</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.8411105871200499</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.98990094661712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.53178787231445</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.30629038810729</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.0085930824279701</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.9119008779525699</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.9475415945053101</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.9883574247360201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.99513989686965898</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.41311052441596902</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.01075303554534</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.37306427955627</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.1292688846588099</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.14005374908447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1.5612865686416599</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.49939504265785201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.35487475991249001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-0.26447480916976901</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-0.33441457152366599</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-0.25405940413474998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-0.29771515727043102</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.90755933523178101</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-0.67313051223754805</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-0.36489057540893499</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-0.64455127716064398</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-0.53006559610366799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-1.03297042846679</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-1.0621370077133101</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-0.76386409997939997</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-0.78989779949188199</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1.0360014438629099</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-1.15444195270538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1.1576118469238199</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.51926952600479104</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-1.09679543972015</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1.16562807559967</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1.0955941677093499</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-1.18697834014892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.120772257447242</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.88245934247970503</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.54442591592669E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.40200927853584201</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-0.278797537088394</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-0.32425165176391602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-0.25193008780479398</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.5759903490543303E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-1.5527751445770199</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1.04955613613128</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-0.99850928783416704</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-0.66586816310882502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.97555243968963601</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.88621562719345004</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.125050023198127</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-0.296039879322052</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.34744316339492698</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.86890560388564997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.1175278425216599</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.66142833232879605</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.35546800494193997</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.40743365883827198</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.46604266762733398</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.744237780570983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-1.56019639968872</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.685363888740539</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-0.104978688061237</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1.3387032747268599</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-0.44236236810684199</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.16913871467113401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.47488027811050398</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.16849637031555</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.1822258234023999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.78734850883483798</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.79743647575378396</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.52899301052093495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0465773344039899</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.60425472259521396</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.960943102836608</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.0526260137557899</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.721343994140625</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.826646327972412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.02476871013641</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.97611552476882901</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.0367394685745199</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.98640102148055997</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.0355017185211099</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.53675723075866599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.36378037929534</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.68136340379714899</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.73456811904907</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.81701564788818</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.6220163106918299</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.84341776371002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-1.3725326061248699</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-0.62640041112899703</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-0.97396254539489702</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-0.70002019405364901</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-0.97592735290527299</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-0.65348023176193204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.89939582347869795</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0024377107620199</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5.4378982633352203E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.199075117707252</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.60637354850768999</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.62496709823608299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.5413569211959799</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.86791545152664096</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.87605392932891</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.5754078626632599</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.9123853445053101</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.2305908203125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.18061743676662401</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.25210604071617099</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-0.26371133327484098</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-6.5245024859905201E-2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-0.39514949917793202</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-0.75637614727020197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-0.86316913366317705</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.0975257158279399</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-0.53115969896316495</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-1.1718788146972601</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-0.85740095376968295</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-0.677892506122589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-0.24847292900085399</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-8.5357956588268197E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-0.43031299114227201</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-1.01845431327819</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-0.76125335693359297</v>
+      </c>
+      <c r="H54" s="1">
+        <v>-0.68032634258270197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-1.20726430416107</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1.4376965761184599</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-0.659545838832855</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-0.92318969964981001</v>
+      </c>
+      <c r="G55" s="1">
+        <v>-0.517300605773925</v>
+      </c>
+      <c r="H55" s="1">
+        <v>-0.64472448825836104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-2.1727035045623699</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-0.65691208839416504</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1.6961038112640301</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-2.1868226528167698</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-1.62506222724914</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-1.3067097663879299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0410457849502499</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.41318827867507901</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.1158421039581199</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.0086036920547401</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.97882479429244895</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.515630543231964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.2079842090606601</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.67390775680541903</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1.0908566713333101</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.69814205169677</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.22635805606842</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.27234530448913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-1.4036623239517201</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.61981320381164</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-0.63835614919662398</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-1.10131251811981</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-0.49234876036643899</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-0.41703677177429099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.5317293405532799</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.99908649921417203</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1.82890772819519</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.8174076080322199</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2.01521372795104</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2.2395277023315399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.6981228962540599E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.91781497001647905</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-0.24881325662136</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-0.37709841132164001</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-0.27447015047073298</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.130291953682899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.1355739831924401</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-9.5359116792678805E-2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.40525221824646</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.07032310962677</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.4130818843841499</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.4001430273055999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.14753425121307</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.0575821399688701</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-0.334954023361206</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-0.96611630916595403</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-5.07727786898612E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.65459519624710005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-0.96958905458450295</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-0.10491097718477201</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-0.79206323623657204</v>
+      </c>
+      <c r="F64" s="1">
+        <v>-0.79791039228439298</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-0.60455214977264404</v>
+      </c>
+      <c r="H64" s="1">
+        <v>-0.75331127643585205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.2946361303329399</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.36045405268669101</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1.6016182899475</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.76070868968963</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.69150698184967</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1.89897668361663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.293726235628128</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-0.31329149007797202</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.51824814081192005</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.00866103172302</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.38366097211837702</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.68535339832305897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.58360558748245195</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-0.13092862069606701</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-0.16831095516681599</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-0.23250968754291501</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4.87857796251773E-2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>-0.149014636874198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="1">
+        <v>-0.76168602705001798</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-0.39387482404708801</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-1.00586020946502</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-0.86767369508743197</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-1.2160677909851001</v>
+      </c>
+      <c r="H68" s="1">
+        <v>-0.918959081172943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="1">
+        <v>-1.2619493007659901</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-0.4344123005867</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-0.84194332361221302</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-0.50932466983795099</v>
+      </c>
+      <c r="G69" s="1">
+        <v>-0.77446812391281095</v>
+      </c>
+      <c r="H69" s="1">
+        <v>-0.81204479932785001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="1">
+        <v>-0.73456287384033203</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-0.44269385933875999</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-1.6429979801177901</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-1.2358268499374301</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-1.4868019819259599</v>
+      </c>
+      <c r="H70" s="1">
+        <v>-1.5522993803024201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-1.9525450468063299</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-0.14086863398551899</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-1.40799260139465</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-1.3802393674850399</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-1.5158510208129801</v>
+      </c>
+      <c r="H71" s="1">
+        <v>-1.8058824539184499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.66849511861801103</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-0.12159917503595299</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.22667780518531699</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.148386850953102</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.107345834374427</v>
+      </c>
+      <c r="H72" s="1">
+        <v>-9.2085711658000904E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.81703567504882801</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.01893246173858</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-0.17501646280288599</v>
+      </c>
+      <c r="F73" s="1">
+        <v>8.4024965763091999E-2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.56896489858627297</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.56389349699020297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.2793039083480799</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.965061545372</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.84288269281387296</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.3346858024597099</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.72360038757324</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1.1670714616775499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-0.29188889265060403</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-0.54259264469146695</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-0.60639333724975497</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-0.202431544661521</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-1.0198415517807</v>
+      </c>
+      <c r="H75" s="1">
+        <v>-0.73982125520706099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.2793039083480799</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.55095708370208696</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1.1278562545776301</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.4288026094436601</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.3083679676055899</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.97504401206970204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.25353905558586098</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-2.60626636445522E-2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-0.30152425169944702</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-0.41651624441146801</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-0.30911359190940801</v>
+      </c>
+      <c r="H77" s="1">
+        <v>-0.32455241680145203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.37720924615859902</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.75080710649490301</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.8421443700790401</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2.15388679504394</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.7228528261184599</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1.5616865158080999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-0.43969917297363198</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-0.433312118053436</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-0.72635036706924405</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-0.51302802562713601</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-1.1187045574188199</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-0.65777450799942005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.52451694011688199</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.66376948356628396</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.49428680539131098</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.35627833008766102</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.40917614102363498</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.20333077013492501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-0.75944733619689897</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-0.74378806352615301</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-2.0784919261932302</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-1.2383120059967001</v>
+      </c>
+      <c r="G81" s="1">
+        <v>-1.00199651718139</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-1.3316276073455799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.40125232934951699</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.65467864274978604</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.46430164575576699</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.60342192649841297</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.423058360815048</v>
+      </c>
+      <c r="H82" s="1">
+        <v>9.7243495285511003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.16667854785919101</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-0.372952431440353</v>
+      </c>
+      <c r="E83" s="1">
+        <v>7.6384926214814099E-3</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-0.122343853116035</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-0.34475120902061401</v>
+      </c>
+      <c r="H83" s="1">
+        <v>-0.399326682090759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.44018736481666498</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-0.95383983850479104</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7.5183220207691095E-2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>-0.30650502443313499</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-2.8877168893814E-2</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-0.28225764632224998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.2909750938415501</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.84781885147094704</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.33162081241607</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1.7409651279449401</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1.5172436237335201</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1.58335638046264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-1.3430749177932699</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-0.81307542324066095</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-0.19141444563865601</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-1.2293685674667301</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-0.67901521921157804</v>
+      </c>
+      <c r="H86" s="1">
+        <v>-0.71138840913772505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-1.01678586006164</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-2.31358766555786</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-1.2675300836563099</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-1.1250684261321999</v>
+      </c>
+      <c r="G87" s="1">
+        <v>-1.62559473514556</v>
+      </c>
+      <c r="H87" s="1">
+        <v>-1.3869652748107899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.35605132579803</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.3616238832473699</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.38573205471038</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.2768465280532799</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.5195448398589999</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1.9494936466217001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.78660303354263295</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-0.794536352157592</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.34548771381378</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1.3126295804977399</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.07217621803283</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1.1868088245391799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.0339932441711399</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.369415313005447</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.53477042913436801</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.71059185266494695</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.329159915447235</v>
+      </c>
+      <c r="H90" s="1">
+        <v>8.4406800568103693E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.68126094341277998</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.30768394470214799</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.41220429539680398</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.163843378424644</v>
+      </c>
+      <c r="G91" s="1">
+        <v>-0.20327040553092901</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-0.15906159579753801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="1">
+        <v>-0.71300679445266701</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-0.492398381233215</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.13379023969173401</v>
+      </c>
+      <c r="F92" s="1">
+        <v>5.16794957220554E-2</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.30430009961128202</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.26529330015182401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.98790472745895297</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.98294419050216597</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.82203793525695</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.42812204360961</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1.42099177837371</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1.52495777606964</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="1">
+        <v>-1.20755207538604</v>
+      </c>
+      <c r="D94" s="1">
+        <v>8.4574827924370696E-3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-6.70453235507011E-2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-9.9700734019279397E-2</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-0.43508887290954501</v>
+      </c>
+      <c r="H94" s="1">
+        <v>-0.816717088222503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-0.115443103015422</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-1.3547910451889</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-0.32493796944618197</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-0.30032971501350397</v>
+      </c>
+      <c r="G95" s="1">
+        <v>-0.440551668405532</v>
+      </c>
+      <c r="H95" s="1">
+        <v>-0.89278984069824197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="1">
+        <v>-0.420299232006073</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-0.64686191082000699</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-0.89562076330184903</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-0.352632105350494</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-1.0228581428527801</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-1.07930672168731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="1">
+        <v>-1.1069366931915201</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.21103785932064001</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-0.694113969802856</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-0.46522039175033503</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-1.0636622905731199</v>
+      </c>
+      <c r="H97" s="1">
+        <v>-1.2729175090789699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.0048456192016599</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.87323606014251698</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-0.43382063508033702</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-0.83904594182968095</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.236354425549507</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.249524310231208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.0065346956253001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.62633073329925504</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.141600877046585</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.36802798509597701</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.50548082590103105</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.513921618461608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.64072090387344305</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.16346895694732599</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1.06404209136962</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.11432516574859</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.1608361005782999</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.45691260695457397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-0.62896335124969405</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-4.9683164805173798E-2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-0.16353274881839699</v>
+      </c>
+      <c r="F101" s="1">
+        <v>-7.3881961405277197E-2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2.7930332347750601E-2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>-0.26820740103721602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="1">
+        <v>-1.75924384593963</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.53229129314422596</v>
+      </c>
+      <c r="E102" s="1">
+        <v>-0.39820823073387102</v>
+      </c>
+      <c r="F102" s="1">
+        <v>-0.72486811876296897</v>
+      </c>
+      <c r="G102" s="1">
+        <v>-0.79582452774047796</v>
+      </c>
+      <c r="H102" s="1">
+        <v>-0.95244687795639005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-0.52042847871780296</v>
+      </c>
+      <c r="D103" s="1">
+        <v>-1.6189726591110201</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-0.53850978612899703</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-0.34316152334213201</v>
+      </c>
+      <c r="G103" s="1">
+        <v>-0.83049684762954701</v>
+      </c>
+      <c r="H103" s="1">
+        <v>-0.96520113945007302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="1">
+        <v>-0.107508316636085</v>
+      </c>
+      <c r="D104" s="1">
+        <v>-0.43740776181221003</v>
+      </c>
+      <c r="E104" s="1">
+        <v>-1.27893090248107</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-0.94849342107772805</v>
+      </c>
+      <c r="G104" s="1">
+        <v>-0.94515937566757202</v>
+      </c>
+      <c r="H104" s="1">
+        <v>-0.72161543369293202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="1">
+        <v>-1.4297691583633401</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-2.2833299636840798</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-1.8919289112091</v>
+      </c>
+      <c r="F105" s="1">
+        <v>-2.2744607925414999</v>
+      </c>
+      <c r="G105" s="1">
+        <v>-1.81669437885284</v>
+      </c>
+      <c r="H105" s="1">
+        <v>-1.62668585777282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.0126564502716</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.01893246173858</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2.8124617412686299E-2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.29040598869323703</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.51697105169296198</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.63055753707885698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.2502906322479199</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.4779268503189</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.70584893226623</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1.37259817123413</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1.68866443634033</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2.0427041053771902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="1">
+        <v>-8.2130551338195801E-2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-4.0295356884598697E-3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-2.6169471442699401E-2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-0.100035697221755</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.110591605305671</v>
+      </c>
+      <c r="H108" s="1">
+        <v>-0.31072944402694702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3.3744823187589597E-2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-0.23646517097949901</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-0.80185908079147294</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-0.387589871883392</v>
+      </c>
+      <c r="G109" s="1">
+        <v>-0.16829079389572099</v>
+      </c>
+      <c r="H109" s="1">
+        <v>-2.25261617451906E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.99996984004974299</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.82827997207641602</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1.0700654983520499</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1.13621854782104</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1.02935814857482</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.71383607387542702</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.50021052360534</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1.41948473453521</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1.6923457384109399</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1.72207939624786</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1.7603560686111399</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2.0968537330627401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.84248983860015803</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.479069232940673</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1.0052641630172701</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1.0802433490753101</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.95898258686065596</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.43113830685615501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="1">
+        <v>-0.14882056415080999</v>
+      </c>
+      <c r="D113" s="1">
+        <v>-0.282406955957412</v>
+      </c>
+      <c r="E113" s="1">
+        <v>-0.41730821132659901</v>
+      </c>
+      <c r="F113" s="1">
+        <v>-0.18886877596378299</v>
+      </c>
+      <c r="G113" s="1">
+        <v>-0.350176692008972</v>
+      </c>
+      <c r="H113" s="1">
+        <v>-0.41474413871765098</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="1">
+        <v>-6.1402179300785002E-2</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1.4170615673065099</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1.1822258234023999</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1.7814769744873</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.85573917627334495</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.84618538618087702</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="1">
+        <v>-0.62631636857986395</v>
+      </c>
+      <c r="D115" s="1">
+        <v>-0.312573462724685</v>
+      </c>
+      <c r="E115" s="1">
+        <v>-0.10620135813951399</v>
+      </c>
+      <c r="F115" s="1">
+        <v>-0.23495045304298401</v>
+      </c>
+      <c r="G115" s="1">
+        <v>-0.158312633633613</v>
+      </c>
+      <c r="H115" s="1">
+        <v>-0.129715010523796</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" s="1">
+        <v>-2.1214369684457699E-2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>-0.30355989933013899</v>
+      </c>
+      <c r="E116" s="1">
+        <v>-0.62688070535659701</v>
+      </c>
+      <c r="F116" s="1">
+        <v>-0.114886209368705</v>
+      </c>
+      <c r="G116" s="1">
+        <v>-0.49498867988586398</v>
+      </c>
+      <c r="H116" s="1">
+        <v>-0.95168936252593905</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="1">
+        <v>-0.31307724118232699</v>
+      </c>
+      <c r="D117" s="1">
+        <v>-0.29009461402893</v>
+      </c>
+      <c r="E117" s="1">
+        <v>-1.1677271127700799</v>
+      </c>
+      <c r="F117" s="1">
+        <v>-0.68974179029464699</v>
+      </c>
+      <c r="G117" s="1">
+        <v>-0.813404381275177</v>
+      </c>
+      <c r="H117" s="1">
+        <v>-0.90730285644531194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" s="1">
+        <v>-0.73307251930236805</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.420992821455001</v>
+      </c>
+      <c r="E118" s="1">
+        <v>-0.32140630483627303</v>
+      </c>
+      <c r="F118" s="1">
+        <v>-0.45790496468544001</v>
+      </c>
+      <c r="G118" s="1">
+        <v>-0.40759640932083102</v>
+      </c>
+      <c r="H118" s="1">
+        <v>-0.666198790073394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="1">
+        <v>-6.9213010370731298E-2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-0.62906938791275002</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.131913557648658</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.28712186217308</v>
+      </c>
+      <c r="G119" s="1">
+        <v>-0.55621081590652399</v>
+      </c>
+      <c r="H119" s="1">
+        <v>-0.71960693597793501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.1913983821868801</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.207749217748641</v>
+      </c>
+      <c r="E120" s="1">
+        <v>-1.56624412536621</v>
+      </c>
+      <c r="F120" s="1">
+        <v>-0.97654670476913397</v>
+      </c>
+      <c r="G120" s="1">
+        <v>-9.8170541226863806E-2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>-5.1144022494554499E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="1">
+        <v>-0.23609739542007399</v>
+      </c>
+      <c r="D121" s="1">
+        <v>-0.35120466351509</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.10379669815301799</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.440940082073211</v>
+      </c>
+      <c r="G121" s="1">
+        <v>-0.27756515145301802</v>
+      </c>
+      <c r="H121" s="1">
+        <v>-0.28527933359146102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-0.18350622057914701</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-1.61723256111145</v>
+      </c>
+      <c r="E122" s="1">
+        <v>-0.99275106191635099</v>
+      </c>
+      <c r="F122" s="1">
+        <v>-0.59087520837783802</v>
+      </c>
+      <c r="G122" s="1">
+        <v>-0.78216171264648404</v>
+      </c>
+      <c r="H122" s="1">
+        <v>-0.65479850769042902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.1963084936141899</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1.0804413557052599</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.95578449964523304</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1.1567921638488701</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.99775886535644498</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.72124487161636297</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-0.79778313636779696</v>
+      </c>
+      <c r="D124" s="1">
+        <v>-0.80461990833282404</v>
+      </c>
+      <c r="E124" s="1">
+        <v>-0.97628033161163297</v>
+      </c>
+      <c r="F124" s="1">
+        <v>-0.86831617355346602</v>
+      </c>
+      <c r="G124" s="1">
+        <v>-0.88697743415832497</v>
+      </c>
+      <c r="H124" s="1">
+        <v>-0.62113898992538397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.33192771673202498</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.79779285192489602</v>
+      </c>
+      <c r="E125" s="1">
+        <v>-9.8015137016773196E-2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>-7.6312549412250505E-2</v>
+      </c>
+      <c r="G125" s="1">
+        <v>-0.22019700706004999</v>
+      </c>
+      <c r="H125" s="1">
+        <v>-0.48720297217369002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="1">
+        <v>7.59906396269798E-2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.276630640029907</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.13140833377838099</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.22443264722824</v>
+      </c>
+      <c r="G126" s="1">
+        <v>-5.6814476847648603E-3</v>
+      </c>
+      <c r="H126" s="1">
+        <v>-9.9220901727676294E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" t="s">
+        <v>259</v>
+      </c>
+      <c r="C127" s="1">
+        <v>-0.41825243830680803</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-1.09400451183319</v>
+      </c>
+      <c r="E127" s="1">
+        <v>-0.86307102441787698</v>
+      </c>
+      <c r="F127" s="1">
+        <v>-0.70456039905547996</v>
+      </c>
+      <c r="G127" s="1">
+        <v>-1.05130946636199</v>
+      </c>
+      <c r="H127" s="1">
+        <v>-0.87500691413879295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="1">
+        <v>-0.77523887157440097</v>
+      </c>
+      <c r="D128" s="1">
+        <v>-0.746967673301696</v>
+      </c>
+      <c r="E128" s="1">
+        <v>-0.77194720506668002</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-0.74300175905227595</v>
+      </c>
+      <c r="G128" s="1">
+        <v>-0.72643184661865201</v>
+      </c>
+      <c r="H128" s="1">
+        <v>-0.73923468589782704</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.81903874874114901</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1.0131869316101001</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.961162269115448</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1.02975690364837</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.75167185068130404</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.203369081020355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-3.0775604769587499E-2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-0.113478556275367</v>
+      </c>
+      <c r="E130" s="1">
+        <v>-0.72599846124649003</v>
+      </c>
+      <c r="F130" s="1">
+        <v>-0.844848573207855</v>
+      </c>
+      <c r="G130" s="1">
+        <v>-0.37533095479011502</v>
+      </c>
+      <c r="H130" s="1">
+        <v>-0.75668466091155995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" s="1">
+        <v>-0.41837081313133201</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.13682462275028201</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.86577492952346802</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.71179521083831698</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.49914947152137701</v>
+      </c>
+      <c r="H131" s="1">
+        <v>9.6050985157489693E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.58221495151519698</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.71008968353271396</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.16730198264122001</v>
+      </c>
+      <c r="F132" s="1">
+        <v>-0.135936424136161</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.36266624927520702</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.33282545208930903</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-0.42279690504074002</v>
+      </c>
+      <c r="D133" s="1">
+        <v>-1.1033070087432799</v>
+      </c>
+      <c r="E133" s="1">
+        <v>-0.63349342346191395</v>
+      </c>
+      <c r="F133" s="1">
+        <v>-0.67135685682296697</v>
+      </c>
+      <c r="G133" s="1">
+        <v>-0.66107654571533203</v>
+      </c>
+      <c r="H133" s="1">
+        <v>-0.64420413970947199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" s="1">
+        <v>-0.32018288969993502</v>
+      </c>
+      <c r="D134" s="1">
+        <v>-1.8777098655700599</v>
+      </c>
+      <c r="E134" s="1">
+        <v>-1.08753621578216</v>
+      </c>
+      <c r="F134" s="1">
+        <v>-0.91889309883117598</v>
+      </c>
+      <c r="G134" s="1">
+        <v>-1.0172491073608301</v>
+      </c>
+      <c r="H134" s="1">
+        <v>-1.0250064134597701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="1">
+        <v>-0.68153411149978604</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-8.8797748088836601E-2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>-0.68858879804611195</v>
+      </c>
+      <c r="F135" s="1">
+        <v>-0.50670522451400701</v>
+      </c>
+      <c r="G135" s="1">
+        <v>-0.64422744512557895</v>
+      </c>
+      <c r="H135" s="1">
+        <v>-0.87145513296127297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1.5402762889862001</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.912267506122589</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1.83353948593139</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1.9761666059494001</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1.89440989494323</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1.9131114482879601</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1.6642549037933301</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1.20007443428039</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1.86937499046325</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1.6979629993438701</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2.0363340377807599</v>
+      </c>
+      <c r="H137" s="1">
+        <v>2.19658255577087</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="1">
+        <v>-0.252871334552764</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-0.84681200981140103</v>
+      </c>
+      <c r="E138" s="1">
+        <v>-0.82645148038864102</v>
+      </c>
+      <c r="F138" s="1">
+        <v>-0.76453226804733199</v>
+      </c>
+      <c r="G138" s="1">
+        <v>-0.79546934366226096</v>
+      </c>
+      <c r="H138" s="1">
+        <v>-0.79991102218627896</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.50784826278686501</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.57907724380493097</v>
+      </c>
+      <c r="E139" s="1">
+        <v>-0.68833869695663397</v>
+      </c>
+      <c r="F139" s="1">
+        <v>-0.38487157225608798</v>
+      </c>
+      <c r="G139" s="1">
+        <v>-0.77530795335769598</v>
+      </c>
+      <c r="H139" s="1">
+        <v>-0.42814397811889598</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>284</v>
+      </c>
+      <c r="B140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1.5324134826660101</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1.5191833972930899</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1.8430051803588801</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2.03827548027038</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1.9544677734375</v>
+      </c>
+      <c r="H140" s="1">
+        <v>2.28394222259521</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>286</v>
+      </c>
+      <c r="B141" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" s="1">
+        <v>-1.0544072389602599</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.76005303859710605</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.19194637238979301</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.61046612262725797</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.40791705250740001</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.33948376774787897</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142" s="1">
+        <v>-0.70099139213562001</v>
+      </c>
+      <c r="D142" s="1">
+        <v>-2.4831731319427401</v>
+      </c>
+      <c r="E142" s="1">
+        <v>-0.65333569049835205</v>
+      </c>
+      <c r="F142" s="1">
+        <v>-0.63958418369293202</v>
+      </c>
+      <c r="G142" s="1">
+        <v>-0.80437844991683904</v>
+      </c>
+      <c r="H142" s="1">
+        <v>-0.87546485662460305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>290</v>
+      </c>
+      <c r="B143" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.52393901348114003</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.41143006086349398</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.185731455683708</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.36062932014465299</v>
+      </c>
+      <c r="G143" s="1">
+        <v>4.9561142921447698E-2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>-0.49473658204078602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>292</v>
+      </c>
+      <c r="B144" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.2133305072784399</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.95040535926818803</v>
+      </c>
+      <c r="E144" s="1">
+        <v>-0.40165165066719</v>
+      </c>
+      <c r="F144" s="1">
+        <v>-0.17746996879577601</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.32412070035934398</v>
+      </c>
+      <c r="H144" s="1">
+        <v>-0.42814397811889598</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145" t="s">
+        <v>295</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.26763114333152699</v>
+      </c>
+      <c r="D145" s="1">
+        <v>-0.20172694325446999</v>
+      </c>
+      <c r="E145" s="1">
+        <v>-0.17861850559711401</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.50834643840789695</v>
+      </c>
+      <c r="G145" s="1">
+        <v>-0.48202300071716297</v>
+      </c>
+      <c r="H145" s="1">
+        <v>-0.36737826466560303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.16210885345935799</v>
+      </c>
+      <c r="D146" s="1">
+        <v>-1.3798187971115099</v>
+      </c>
+      <c r="E146" s="1">
+        <v>-1.0237089358270101E-2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>-4.1013751178979804E-3</v>
+      </c>
+      <c r="G146" s="1">
+        <v>-0.35493358969688399</v>
+      </c>
+      <c r="H146" s="1">
+        <v>-0.48824590444564803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>298</v>
+      </c>
+      <c r="B147" t="s">
+        <v>299</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.15724155306816101</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-0.50477206707000699</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-0.737446248531341</v>
+      </c>
+      <c r="F147" s="1">
+        <v>-0.55598968267440696</v>
+      </c>
+      <c r="G147" s="1">
+        <v>-0.77642911672592096</v>
+      </c>
+      <c r="H147" s="1">
+        <v>-0.933385670185089</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148" t="s">
+        <v>301</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.84349048137664695</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.50724196434020896</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.70656639337539595</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.95199573040008501</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.63621795177459695</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.73910516500473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.41023847460746699</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.68935400247573797</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0.395702004432678</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.94984805583953802</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.65938276052474898</v>
+      </c>
+      <c r="H149" s="1">
+        <v>3.5049773752689299E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="1">
+        <v>-2.1803963184356601</v>
+      </c>
+      <c r="D150" s="1">
+        <v>-0.68076068162918002</v>
+      </c>
+      <c r="E150" s="1">
+        <v>-1.62683224678039</v>
+      </c>
+      <c r="F150" s="1">
+        <v>-2.3317179679870601</v>
+      </c>
+      <c r="G150" s="1">
+        <v>-1.66957747936248</v>
+      </c>
+      <c r="H150" s="1">
+        <v>-1.4398788213729801</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" t="s">
+        <v>307</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1.15695977210998</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.97405141592025701</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1.2098205089569001</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.84439903497695901</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1.0972419977188099</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.92550688982009799</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" t="s">
+        <v>309</v>
+      </c>
+      <c r="C152" s="1">
+        <v>-6.23434521257877E-2</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.14178971946239399</v>
+      </c>
+      <c r="E152" s="1">
+        <v>-0.79233378171920699</v>
+      </c>
+      <c r="F152" s="1">
+        <v>-0.29997619986534102</v>
+      </c>
+      <c r="G152" s="1">
+        <v>-0.72974836826324396</v>
+      </c>
+      <c r="H152" s="1">
+        <v>-0.709677934646606</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" t="s">
+        <v>311</v>
+      </c>
+      <c r="C153" s="1">
+        <v>-1.15230417251586</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.90023458003997803</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0.73551273345947199</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.69594436883926303</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.79427766799926702</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.90077853202819802</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.53977465629577603</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.277196615934371</v>
+      </c>
+      <c r="E154" s="1">
+        <v>-0.169035583734512</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.58747541904449396</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.36098888516425998</v>
+      </c>
+      <c r="H154" s="1">
+        <v>-1.87148544937372E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" s="1">
+        <v>-1.13394904136657</v>
+      </c>
+      <c r="D155" s="1">
+        <v>-0.94621026515960605</v>
+      </c>
+      <c r="E155" s="1">
+        <v>-0.197238624095916</v>
+      </c>
+      <c r="F155" s="1">
+        <v>-0.41556262969970698</v>
+      </c>
+      <c r="G155" s="1">
+        <v>-0.79216200113296498</v>
+      </c>
+      <c r="H155" s="1">
+        <v>-0.82268798351287797</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" s="1">
+        <v>-1.15700936317443</v>
+      </c>
+      <c r="D156" s="1">
+        <v>-5.4899286478757803E-2</v>
+      </c>
+      <c r="E156" s="1">
+        <v>9.8110064864158603E-2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.107119232416152</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0.101849377155303</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.64412164688110296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" t="s">
+        <v>319</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.77429878711700395</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1.19734942913055</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.54068130254745395</v>
+      </c>
+      <c r="F157" s="1">
+        <v>-0.10307165980339</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.76196461915969804</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.27637678384780801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" t="s">
+        <v>321</v>
+      </c>
+      <c r="C158" s="1">
+        <v>-1.7292166948318399</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-0.464828491210937</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.261262387037277</v>
+      </c>
+      <c r="F158" s="1">
+        <v>7.9331204295158303E-2</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0.33760806918144198</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.23090437054634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>322</v>
+      </c>
+      <c r="B159" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" s="1">
+        <v>-1.8376545906066799</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-2.3372180461883501</v>
+      </c>
+      <c r="E159" s="1">
+        <v>-1.5151770114898599</v>
+      </c>
+      <c r="F159" s="1">
+        <v>-1.4914370775222701</v>
+      </c>
+      <c r="G159" s="1">
+        <v>-1.2581869363784699</v>
+      </c>
+      <c r="H159" s="1">
+        <v>-1.5256652832031199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>324</v>
+      </c>
+      <c r="B160" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.36921870708465498</v>
+      </c>
+      <c r="D160" s="1">
+        <v>-0.21825532615184701</v>
+      </c>
+      <c r="E160" s="1">
+        <v>-0.45392456650733898</v>
+      </c>
+      <c r="F160" s="1">
+        <v>-0.14307232201099301</v>
+      </c>
+      <c r="G160" s="1">
+        <v>-0.106500722467899</v>
+      </c>
+      <c r="H160" s="1">
+        <v>-3.2349466891901102E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" t="s">
+        <v>327</v>
+      </c>
+      <c r="C161" s="1">
+        <v>-0.150453716516494</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1.4957586526870701</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2.2062449455261199</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2.1806120872497501</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1.8252429962158201</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2.08810186386108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+      <c r="B162" t="s">
+        <v>329</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.46739128232002197</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.50602841377258301</v>
+      </c>
+      <c r="E162" s="1">
+        <v>-0.98465120792388905</v>
+      </c>
+      <c r="F162" s="1">
+        <v>-0.95800709724426203</v>
+      </c>
+      <c r="G162" s="1">
+        <v>-0.318936556577682</v>
+      </c>
+      <c r="H162" s="1">
+        <v>-0.34438291192054699</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>330</v>
+      </c>
+      <c r="B163" t="s">
+        <v>331</v>
+      </c>
+      <c r="C163" s="1">
+        <v>-0.19925408065319</v>
+      </c>
+      <c r="D163" s="1">
+        <v>-0.15992645919322901</v>
+      </c>
+      <c r="E163" s="1">
+        <v>-1.17067742347717</v>
+      </c>
+      <c r="F163" s="1">
+        <v>-0.92548877000808705</v>
+      </c>
+      <c r="G163" s="1">
+        <v>-0.77736085653304998</v>
+      </c>
+      <c r="H163" s="1">
+        <v>-0.81913089752197199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" t="s">
+        <v>333</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.18802894651889801</v>
+      </c>
+      <c r="D164" s="1">
+        <v>-9.9291376769542597E-2</v>
+      </c>
+      <c r="E164" s="1">
+        <v>-0.28501406311988797</v>
+      </c>
+      <c r="F164" s="1">
+        <v>9.3971677124500205E-2</v>
+      </c>
+      <c r="G164" s="1">
+        <v>-0.70951676368713301</v>
+      </c>
+      <c r="H164" s="1">
+        <v>-0.52304607629776001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>334</v>
+      </c>
+      <c r="B165" t="s">
+        <v>335</v>
+      </c>
+      <c r="C165" s="1">
+        <v>-1.9124021530151301</v>
+      </c>
+      <c r="D165" s="1">
+        <v>-2.3573625087738002</v>
+      </c>
+      <c r="E165" s="1">
+        <v>-2.19104623794555</v>
+      </c>
+      <c r="F165" s="1">
+        <v>-2.2652735710143999</v>
+      </c>
+      <c r="G165" s="1">
+        <v>-2.3464207649230899</v>
+      </c>
+      <c r="H165" s="1">
+        <v>-1.7012867927551201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166" t="s">
+        <v>337</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.36881017684936501</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.22328685224056199</v>
+      </c>
+      <c r="E166" s="1">
+        <v>-0.67211890220642001</v>
+      </c>
+      <c r="F166" s="1">
+        <v>-0.812458276748657</v>
+      </c>
+      <c r="G166" s="1">
+        <v>-0.66315126419067305</v>
+      </c>
+      <c r="H166" s="1">
+        <v>-6.6172465682029696E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>338</v>
+      </c>
+      <c r="B167" t="s">
+        <v>339</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.41523972153663602</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.16208134591579401</v>
+      </c>
+      <c r="E167" s="1">
+        <v>-0.337957262992858</v>
+      </c>
+      <c r="F167" s="1">
+        <v>-0.62695723772048895</v>
+      </c>
+      <c r="G167" s="1">
+        <v>-0.154877379536628</v>
+      </c>
+      <c r="H167" s="1">
+        <v>-0.30348703265190102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168" t="s">
+        <v>341</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.96077245473861606</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.72117066383361805</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0.89406812191009499</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0.889051914215087</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0.64680153131484897</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0.229155883193016</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>342</v>
+      </c>
+      <c r="B169" t="s">
+        <v>343</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1.01017117500305</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.99043601751327504</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1.1272587776184</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0.64026939868927002</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1.0826723575592001</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0.82298815250396695</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" t="s">
+        <v>345</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1.56390380859375</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1.0179408788680999</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1.77364349365234</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1.85420298576354</v>
+      </c>
+      <c r="G170" s="1">
+        <v>2.0190336704254102</v>
+      </c>
+      <c r="H170" s="1">
+        <v>2.1918396949768</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+      <c r="C171" s="1">
+        <v>-1.41625440120697</v>
+      </c>
+      <c r="D171" s="1">
+        <v>-0.488716840744018</v>
+      </c>
+      <c r="E171" s="1">
+        <v>-0.578385710716247</v>
+      </c>
+      <c r="F171" s="1">
+        <v>-0.57628685235977095</v>
+      </c>
+      <c r="G171" s="1">
+        <v>-0.36851659417152399</v>
+      </c>
+      <c r="H171" s="1">
+        <v>-0.45009845495223899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>348</v>
+      </c>
+      <c r="B172" t="s">
+        <v>349</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.158111497759819</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.733004510402679</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0.370022982358932</v>
+      </c>
+      <c r="F172" s="1">
+        <v>-0.25915461778640703</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0.150874763727188</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0.77615427970886197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>350</v>
+      </c>
+      <c r="B173" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" s="1">
+        <v>-1.98681116104125</v>
+      </c>
+      <c r="D173" s="1">
+        <v>-2.9163231849670401</v>
+      </c>
+      <c r="E173" s="1">
+        <v>-1.8189216852188099</v>
+      </c>
+      <c r="F173" s="1">
+        <v>-1.66615355014801</v>
+      </c>
+      <c r="G173" s="1">
+        <v>-1.9906145334243699</v>
+      </c>
+      <c r="H173" s="1">
+        <v>-1.5721147060394201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>352</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" s="1">
+        <v>-1.3558602333068801</v>
+      </c>
+      <c r="D174" s="1">
+        <v>-1.3023647069930999</v>
+      </c>
+      <c r="E174" s="1">
+        <v>-1.51189529895782</v>
+      </c>
+      <c r="F174" s="1">
+        <v>-1.1800222396850499</v>
+      </c>
+      <c r="G174" s="1">
+        <v>-1.3779296875</v>
+      </c>
+      <c r="H174" s="1">
+        <v>-1.4878790378570499</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" t="s">
+        <v>355</v>
+      </c>
+      <c r="C175" s="1">
+        <v>-0.54589974880218495</v>
+      </c>
+      <c r="D175" s="1">
+        <v>-0.172353580594062</v>
+      </c>
+      <c r="E175" s="1">
+        <v>-1.0685338973998999</v>
+      </c>
+      <c r="F175" s="1">
+        <v>-0.79330235719680697</v>
+      </c>
+      <c r="G175" s="1">
+        <v>-0.63355433940887396</v>
+      </c>
+      <c r="H175" s="1">
+        <v>-0.67739486694335904</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" t="s">
+        <v>357</v>
+      </c>
+      <c r="C176" s="1">
+        <v>-1.02511405944824</v>
+      </c>
+      <c r="D176" s="1">
+        <v>-0.98858141899108798</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0.34203100204467701</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0.16807022690772999</v>
+      </c>
+      <c r="G176" s="1">
+        <v>-4.8757079057395398E-3</v>
+      </c>
+      <c r="H176" s="1">
+        <v>-0.38898456096649098</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" t="s">
+        <v>359</v>
+      </c>
+      <c r="C177" s="1">
+        <v>-1.6917637586593599</v>
+      </c>
+      <c r="D177" s="1">
+        <v>-0.777759850025177</v>
+      </c>
+      <c r="E177" s="1">
+        <v>-1.0268584489822301</v>
+      </c>
+      <c r="F177" s="1">
+        <v>-1.0931367874145499</v>
+      </c>
+      <c r="G177" s="1">
+        <v>-1.14800560474395</v>
+      </c>
+      <c r="H177" s="1">
+        <v>-1.1465384960174501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>360</v>
+      </c>
+      <c r="B178" t="s">
+        <v>361</v>
+      </c>
+      <c r="C178" s="1">
+        <v>-2.17088747024536</v>
+      </c>
+      <c r="D178" s="1">
+        <v>-0.189692512154579</v>
+      </c>
+      <c r="E178" s="1">
+        <v>-1.1266111135482699</v>
+      </c>
+      <c r="F178" s="1">
+        <v>-2.09098815917968</v>
+      </c>
+      <c r="G178" s="1">
+        <v>-1.4898247718811</v>
+      </c>
+      <c r="H178" s="1">
+        <v>-1.51862609386444</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" t="s">
+        <v>363</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0.21950981020927399</v>
+      </c>
+      <c r="D179" s="1">
+        <v>-1.05037782341241E-2</v>
+      </c>
+      <c r="E179" s="1">
+        <v>-1.0143020153045601</v>
+      </c>
+      <c r="F179" s="1">
+        <v>-0.97730576992034901</v>
+      </c>
+      <c r="G179" s="1">
+        <v>-1.15814161300659</v>
+      </c>
+      <c r="H179" s="1">
+        <v>-0.51068103313446001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>364</v>
+      </c>
+      <c r="B180" t="s">
+        <v>365</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0.64269375801086404</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.91781497001647905</v>
+      </c>
+      <c r="E180" s="1">
+        <v>-0.282050460577011</v>
+      </c>
+      <c r="F180" s="1">
+        <v>-0.40524891018867398</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0.25853499770164401</v>
+      </c>
+      <c r="H180" s="1">
+        <v>-0.44518023729324302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>366</v>
+      </c>
+      <c r="B181" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.55795091390609697</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.286351978778839</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0.22778211534023199</v>
+      </c>
+      <c r="F181" s="1">
+        <v>8.6722582578659002E-2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>-0.15407173335552199</v>
+      </c>
+      <c r="H181" s="1">
+        <v>-0.24027432501316001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>368</v>
+      </c>
+      <c r="B182" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.30342689156532199</v>
+      </c>
+      <c r="D182" s="1">
+        <v>-1.1413267850875799</v>
+      </c>
+      <c r="E182" s="1">
+        <v>-0.229002550244331</v>
+      </c>
+      <c r="F182" s="1">
+        <v>-0.47009325027465798</v>
+      </c>
+      <c r="G182" s="1">
+        <v>-3.1012089457362799E-3</v>
+      </c>
+      <c r="H182" s="1">
+        <v>-0.134844794869422</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="1">
+        <v>-0.60891145467758101</v>
+      </c>
+      <c r="D183" s="1">
+        <v>-2.0090630054473801</v>
+      </c>
+      <c r="E183" s="1">
+        <v>4.8478271812200498E-2</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0.19614253938198001</v>
+      </c>
+      <c r="G183" s="1">
+        <v>-0.20864415168762199</v>
+      </c>
+      <c r="H183" s="1">
+        <v>-0.19156080484390201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>372</v>
+      </c>
+      <c r="B184" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1.0817379951477</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1.41341936588287</v>
+      </c>
+      <c r="E184" s="1">
+        <v>-0.92562019824981601</v>
+      </c>
+      <c r="F184" s="1">
+        <v>-0.59011727571487405</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0.46582362055778498</v>
+      </c>
+      <c r="H184" s="1">
+        <v>3.05533483624458E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>374</v>
+      </c>
+      <c r="B185" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1.0092875957489</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.92566442489624001</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1.36144006252288</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1.2878601551055899</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1.14133656024932</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0.88019961118698098</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>376</v>
+      </c>
+      <c r="B186" t="s">
+        <v>377</v>
+      </c>
+      <c r="C186" s="1">
+        <v>-0.223795786499977</v>
+      </c>
+      <c r="D186" s="1">
+        <v>-0.44099476933479298</v>
+      </c>
+      <c r="E186" s="1">
+        <v>-0.54560840129852195</v>
+      </c>
+      <c r="F186" s="1">
+        <v>-0.435308367013931</v>
+      </c>
+      <c r="G186" s="1">
+        <v>-0.376700788736343</v>
+      </c>
+      <c r="H186" s="1">
+        <v>-0.50690144300460804</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>378</v>
+      </c>
+      <c r="B187" t="s">
+        <v>379</v>
+      </c>
+      <c r="C187" s="1">
+        <v>-0.65001368522643999</v>
+      </c>
+      <c r="D187" s="1">
+        <v>-0.71532273292541504</v>
+      </c>
+      <c r="E187" s="1">
+        <v>-0.57125228643417303</v>
+      </c>
+      <c r="F187" s="1">
+        <v>-0.213146582245826</v>
+      </c>
+      <c r="G187" s="1">
+        <v>-0.251176357269287</v>
+      </c>
+      <c r="H187" s="1">
+        <v>-1.0567436218261701</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" t="s">
+        <v>381</v>
+      </c>
+      <c r="C188" s="1">
+        <v>5.9614836936816497E-4</v>
+      </c>
+      <c r="D188" s="1">
+        <v>-1.85647988319396</v>
+      </c>
+      <c r="E188" s="1">
+        <v>-0.57227861881256104</v>
+      </c>
+      <c r="F188" s="1">
+        <v>-0.42953437566757202</v>
+      </c>
+      <c r="G188" s="1">
+        <v>-0.766293704509735</v>
+      </c>
+      <c r="H188" s="1">
+        <v>-0.81410020589828402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>382</v>
+      </c>
+      <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1.1629720926284699</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1.0625804662704399</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0.57418054342269798</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.48945555090904203</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0.63039422035217196</v>
+      </c>
+      <c r="H189" s="1">
+        <v>1.2674987316131501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>384</v>
+      </c>
+      <c r="B190" t="s">
+        <v>385</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1.1092795133590601</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.40230292081832802</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1.4767925739288299</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1.49707615375518</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1.6179962158203101</v>
+      </c>
+      <c r="H190" s="1">
+        <v>1.3735320568084699</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>386</v>
+      </c>
+      <c r="B191" t="s">
+        <v>387</v>
+      </c>
+      <c r="C191" s="1">
+        <v>-1.8869038820266699</v>
+      </c>
+      <c r="D191" s="1">
+        <v>-0.27257069945335299</v>
+      </c>
+      <c r="E191" s="1">
+        <v>-0.57731002569198597</v>
+      </c>
+      <c r="F191" s="1">
+        <v>-1.61992251873016</v>
+      </c>
+      <c r="G191" s="1">
+        <v>-1.10681748390197</v>
+      </c>
+      <c r="H191" s="1">
+        <v>-1.1688911914825399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>388</v>
+      </c>
+      <c r="B192" t="s">
+        <v>389</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.95530438423156705</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1.01893246173858</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0.217217981815338</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.27932667732238697</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0.40421649813652</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0.67590439319610496</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>390</v>
+      </c>
+      <c r="B193" t="s">
+        <v>391</v>
+      </c>
+      <c r="C193" s="1">
+        <v>-1.1365981101989699</v>
+      </c>
+      <c r="D193" s="1">
+        <v>-1.02460360527038</v>
+      </c>
+      <c r="E193" s="1">
+        <v>-1.2857309579849201</v>
+      </c>
+      <c r="F193" s="1">
+        <v>-1.9967542886734</v>
+      </c>
+      <c r="G193" s="1">
+        <v>-2.2410798072814901</v>
+      </c>
+      <c r="H193" s="1">
+        <v>-1.3538277149200399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>392</v>
+      </c>
+      <c r="B194" t="s">
+        <v>393</v>
+      </c>
+      <c r="C194" s="1">
+        <v>-1.37498235702514</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0.233591929078102</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1.9704807549715E-2</v>
+      </c>
+      <c r="F194" s="1">
+        <v>-0.45379292964935303</v>
+      </c>
+      <c r="G194" s="1">
+        <v>7.5360693037509904E-2</v>
+      </c>
+      <c r="H194" s="1">
+        <v>-0.45247077941894498</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>394</v>
+      </c>
+      <c r="B195" t="s">
+        <v>395</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0.66411083936691195</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0.51311391592025701</v>
+      </c>
+      <c r="E195" s="1">
+        <v>-0.879916071891784</v>
+      </c>
+      <c r="F195" s="1">
+        <v>-0.29311633110046298</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0.33826303482055597</v>
+      </c>
+      <c r="H195" s="1">
+        <v>-9.5952324569225297E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>396</v>
+      </c>
+      <c r="B196" t="s">
+        <v>397</v>
+      </c>
+      <c r="C196" s="1">
+        <v>-1.09487545490264</v>
+      </c>
+      <c r="D196" s="1">
+        <v>-1.9763993024826001</v>
+      </c>
+      <c r="E196" s="1">
+        <v>-0.63543367385864202</v>
+      </c>
+      <c r="F196" s="1">
+        <v>6.4644619822502095E-2</v>
+      </c>
+      <c r="G196" s="1">
+        <v>-0.34353452920913602</v>
+      </c>
+      <c r="H196" s="1">
+        <v>-0.14947183430194799</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>398</v>
+      </c>
+      <c r="B197" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1.2793039083480799</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1.31866908073425</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1.26891660690307</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0.69870370626449496</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1.72360038757324</v>
+      </c>
+      <c r="H197" s="1">
+        <v>1.14070391654968</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>400</v>
+      </c>
+      <c r="B198" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" s="1">
+        <v>-1.6919736862182599</v>
+      </c>
+      <c r="D198" s="1">
+        <v>-2.7948765754699698</v>
+      </c>
+      <c r="E198" s="1">
+        <v>-1.8250585794448799</v>
+      </c>
+      <c r="F198" s="1">
+        <v>-1.47993087768554</v>
+      </c>
+      <c r="G198" s="1">
+        <v>-1.6449893712997401</v>
+      </c>
+      <c r="H198" s="1">
+        <v>-1.6637320518493599</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>402</v>
+      </c>
+      <c r="B199" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0.19904795289039601</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.14015360176563199</v>
+      </c>
+      <c r="E199" s="1">
+        <v>7.9659454524517004E-2</v>
+      </c>
+      <c r="F199" s="1">
+        <v>5.6299559772014597E-2</v>
+      </c>
+      <c r="G199" s="1">
+        <v>-0.15925031900405801</v>
+      </c>
+      <c r="H199" s="1">
+        <v>-0.32247868180274902</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>404</v>
+      </c>
+      <c r="B200" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0.64768421649932795</v>
+      </c>
+      <c r="D200" s="1">
+        <v>-0.14150397479534099</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0.30643972754478399</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0.21184352040290799</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0.11623124033212601</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0.118391469120979</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>406</v>
+      </c>
+      <c r="B201" t="s">
+        <v>407</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-1.39051413536071</v>
+      </c>
+      <c r="D201" s="1">
+        <v>-2.2346215248107901</v>
+      </c>
+      <c r="E201" s="1">
+        <v>-1.51093196868896</v>
+      </c>
+      <c r="F201" s="1">
+        <v>-1.3239778280258101</v>
+      </c>
+      <c r="G201" s="1">
+        <v>-1.61850798130035</v>
+      </c>
+      <c r="H201" s="1">
+        <v>-1.3373233079910201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>408</v>
+      </c>
+      <c r="B202" t="s">
+        <v>409</v>
+      </c>
+      <c r="C202" s="1">
+        <v>-0.30610966682433999</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0.14280804991722101</v>
+      </c>
+      <c r="E202" s="1">
+        <v>-0.66005873680114702</v>
+      </c>
+      <c r="F202" s="1">
+        <v>-0.48359307646751398</v>
+      </c>
+      <c r="G202" s="1">
+        <v>-0.300440043210983</v>
+      </c>
+      <c r="H202" s="1">
+        <v>-0.40186595916748002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>410</v>
+      </c>
+      <c r="B203" t="s">
+        <v>411</v>
+      </c>
+      <c r="C203" s="1">
+        <v>-1.18098664283752</v>
+      </c>
+      <c r="D203" s="1">
+        <v>-0.61993789672851496</v>
+      </c>
+      <c r="E203" s="1">
+        <v>-1.1583504676818801</v>
+      </c>
+      <c r="F203" s="1">
+        <v>-1.72011017799377</v>
+      </c>
+      <c r="G203" s="1">
+        <v>-1.36823010444641</v>
+      </c>
+      <c r="H203" s="1">
+        <v>-1.25938749313354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H203"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,30 +6972,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1.30592513084411</v>
@@ -1679,12 +7016,12 @@
         <v>1.25202655792236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>1.0695887804031301</v>
@@ -1705,12 +7042,12 @@
         <v>1.23861443996429</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>-0.99471974372863703</v>
@@ -1731,12 +7068,12 @@
         <v>-1.4966481924057</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>-0.91959363222122104</v>
@@ -1757,12 +7094,12 @@
         <v>-1.1445406675338701</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>0.206369534134864</v>
@@ -1783,12 +7120,12 @@
         <v>-0.52186667919158902</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>-1.1093342304229701</v>
@@ -1809,12 +7146,12 @@
         <v>1.1516079902648899</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0.56530153751373202</v>
@@ -1835,12 +7172,12 @@
         <v>-8.3467543125152505E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>-0.11345826834440199</v>
@@ -1861,12 +7198,12 @@
         <v>-0.349112659692764</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>0.61853504180908203</v>
@@ -1887,12 +7224,12 @@
         <v>0.27663460373878401</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>1.4281481504440301</v>
@@ -1913,12 +7250,12 @@
         <v>1.8062008619308401</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>1.38067185878753</v>
@@ -1939,12 +7276,12 @@
         <v>1.5962617397308301</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>-1.4979943037032999</v>
@@ -1965,12 +7302,12 @@
         <v>-0.82860308885574296</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>-1.6515653133392301</v>
@@ -1991,12 +7328,12 @@
         <v>-1.45063281059265</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>1.3972533941268901</v>
@@ -2017,12 +7354,12 @@
         <v>1.5102791786193801</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>0.26741245388984602</v>
@@ -2043,12 +7380,12 @@
         <v>-0.383374363183975</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>-4.3225072324275901E-2</v>
@@ -2069,12 +7406,12 @@
         <v>-0.11239501088857599</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1">
         <v>-0.72841370105743397</v>
@@ -2095,12 +7432,12 @@
         <v>-0.90502154827117898</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
         <v>0.32338210940361001</v>
@@ -2121,12 +7458,12 @@
         <v>-0.151533544063568</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>-1.40590691566467</v>
@@ -2147,12 +7484,12 @@
         <v>-0.14728666841983701</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>0.79563462734222401</v>
@@ -2173,12 +7510,12 @@
         <v>1.1311018466949401</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>-0.243590652942657</v>
@@ -2199,12 +7536,12 @@
         <v>-0.571802258491516</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1">
         <v>-1.35076892375946</v>
@@ -2225,12 +7562,12 @@
         <v>-0.19227556884288699</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1">
         <v>0.45075336098670898</v>
@@ -2251,12 +7588,12 @@
         <v>-0.138192042708396</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1">
         <v>-4.2587254196405397E-2</v>
@@ -2277,12 +7614,12 @@
         <v>-0.62591004371643</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1">
         <v>0.38856860995292603</v>
@@ -2303,12 +7640,12 @@
         <v>-0.41969555616378701</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1">
         <v>1.12458980083465</v>
@@ -2329,12 +7666,12 @@
         <v>1.4113733768463099</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1">
         <v>-0.84325921535491899</v>
@@ -2355,12 +7692,12 @@
         <v>0.79530769586563099</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1">
         <v>6.0540687292814199E-2</v>
@@ -2381,12 +7718,12 @@
         <v>1.6465139389037999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1">
         <v>-1.9775987863540601</v>
@@ -2407,12 +7744,12 @@
         <v>-1.7279535531997601</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
         <v>0.47474023699760398</v>
@@ -2433,12 +7770,12 @@
         <v>0.75051081180572499</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
         <v>-1.1885966062545701</v>
@@ -2459,12 +7796,12 @@
         <v>-1.2333954572677599</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1">
         <v>1.52085673809051</v>
@@ -2485,12 +7822,12 @@
         <v>1.8735144138336099</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1">
         <v>1.61642169952392</v>
@@ -2511,12 +7848,12 @@
         <v>2.00971031188964</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>1.05492508411407</v>
@@ -2537,12 +7874,12 @@
         <v>1.01211810111999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1">
         <v>-1.4493772983551001</v>
@@ -2563,12 +7900,12 @@
         <v>-0.27124416828155501</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1">
         <v>-0.216192185878753</v>
@@ -2589,12 +7926,12 @@
         <v>-0.49909627437591497</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1">
         <v>-1.10400342941284</v>
@@ -2615,12 +7952,12 @@
         <v>-1.1497484445571799</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1">
         <v>-1.1810613870620701</v>
@@ -2641,12 +7978,12 @@
         <v>-1.3588067293167101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1">
         <v>0.19138419628143299</v>
@@ -2667,12 +8004,12 @@
         <v>-0.301492929458618</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1">
         <v>-0.43734255433082497</v>
@@ -2693,12 +8030,12 @@
         <v>-0.81641250848770097</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1">
         <v>0.99774384498596103</v>
@@ -2719,12 +8056,12 @@
         <v>0.76821964979171697</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>1.14465820789337</v>
@@ -2745,12 +8082,12 @@
         <v>0.55176079273223799</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1">
         <v>-1.44481921195983</v>
@@ -2771,12 +8108,12 @@
         <v>0.16541530191898299</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C45" s="1">
         <v>0.49197277426719599</v>
@@ -2797,12 +8134,12 @@
         <v>0.496343553066253</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1">
         <v>1.03808140754699</v>
@@ -2823,12 +8160,12 @@
         <v>0.63996618986129705</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1">
         <v>0.93031203746795599</v>
@@ -2849,12 +8186,12 @@
         <v>0.50373208522796598</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1">
         <v>1.4223617315292301</v>
@@ -2875,12 +8212,12 @@
         <v>1.94658386707305</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1">
         <v>-1.3520536422729399</v>
@@ -2901,12 +8238,12 @@
         <v>-0.71680927276611295</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C50" s="1">
         <v>0.81051546335220304</v>
@@ -2927,12 +8264,12 @@
         <v>0.54573369026184004</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1">
         <v>1.6117973327636701</v>
@@ -2953,12 +8290,12 @@
         <v>2.1477954387664702</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1">
         <v>0.13743266463279699</v>
@@ -2979,12 +8316,12 @@
         <v>-0.74948996305465598</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1">
         <v>-0.98098379373550404</v>
@@ -3005,12 +8342,12 @@
         <v>-0.63646501302719105</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1">
         <v>2.6411216706037501E-2</v>
@@ -3031,12 +8368,12 @@
         <v>-0.56179720163345304</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1">
         <v>-1.2841826677322301</v>
@@ -3057,12 +8394,12 @@
         <v>-0.58693414926528897</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1">
         <v>-2.1763432025909402</v>
@@ -3083,12 +8420,12 @@
         <v>-1.3160228729248</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1">
         <v>1.06425297260284</v>
@@ -3109,12 +8446,12 @@
         <v>0.61350703239440896</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1">
         <v>1.21296954154968</v>
@@ -3135,12 +8472,12 @@
         <v>1.5063180923461901</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C59" s="1">
         <v>-1.15886962413787</v>
@@ -3161,12 +8498,12 @@
         <v>-0.486167162656784</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1">
         <v>1.61238706111907</v>
@@ -3187,12 +8524,12 @@
         <v>2.21243000030517</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1">
         <v>0.21666623651981301</v>
@@ -3213,12 +8550,12 @@
         <v>0.38099741935729903</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1">
         <v>1.1794147491455</v>
@@ -3239,12 +8576,12 @@
         <v>1.3168927431106501</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1">
         <v>1.1460160017013501</v>
@@ -3265,12 +8602,12 @@
         <v>0.69302982091903598</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1">
         <v>-0.94774937629699696</v>
@@ -3291,12 +8628,12 @@
         <v>-0.85120493173599199</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C65" s="1">
         <v>1.3839764595031701</v>
@@ -3317,12 +8654,12 @@
         <v>1.82657659053802</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1">
         <v>0.246690332889556</v>
@@ -3343,12 +8680,12 @@
         <v>0.707991063594818</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1">
         <v>0.57870388031005804</v>
@@ -3369,12 +8706,12 @@
         <v>-0.114903882145881</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1">
         <v>-0.75367426872253396</v>
@@ -3395,12 +8732,12 @@
         <v>-1.0417174100875799</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1">
         <v>-0.19719675183296201</v>
@@ -3421,12 +8758,12 @@
         <v>-0.463039070367813</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C70" s="1">
         <v>-0.66633987426757801</v>
@@ -3447,12 +8784,12 @@
         <v>-1.5337235927581701</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1">
         <v>-1.8645235300064</v>
@@ -3473,12 +8810,12 @@
         <v>-1.5596842765808101</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1">
         <v>0.85733658075332597</v>
@@ -3499,12 +8836,12 @@
         <v>-6.6025868058204595E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1">
         <v>0.53443294763564997</v>
@@ -3525,12 +8862,12 @@
         <v>0.37653726339340199</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C74" s="1">
         <v>1.30592513084411</v>
@@ -3551,12 +8888,12 @@
         <v>1.17730093002319</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C75" s="1">
         <v>-0.34243375062942499</v>
@@ -3577,12 +8914,12 @@
         <v>-0.82281255722045799</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C76" s="1">
         <v>1.30592513084411</v>
@@ -3603,12 +8940,12 @@
         <v>0.95251643657684304</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1">
         <v>0.257583528757095</v>
@@ -3629,12 +8966,12 @@
         <v>-0.226697653532028</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C78" s="1">
         <v>0.46859300136566101</v>
@@ -3655,12 +8992,12 @@
         <v>1.67644095420837</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C79" s="1">
         <v>-0.50831818580627397</v>
@@ -3681,12 +9018,12 @@
         <v>-0.616485655307769</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C80" s="1">
         <v>0.501964271068573</v>
@@ -3707,12 +9044,12 @@
         <v>0.131639063358306</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1">
         <v>-0.745483338832855</v>
@@ -3733,12 +9070,12 @@
         <v>-1.2651891708373999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C82" s="1">
         <v>0.31834238767623901</v>
@@ -3759,12 +9096,12 @@
         <v>5.3346969187259598E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C83" s="1">
         <v>0.1797366887331</v>
@@ -3785,12 +9122,12 @@
         <v>-0.25154468417167603</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C84" s="1">
         <v>0.378832668066024</v>
@@ -3811,12 +9148,12 @@
         <v>-0.18629302084445901</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C85" s="1">
         <v>1.3187503814697199</v>
@@ -3837,12 +9174,12 @@
         <v>1.54737555980682</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C86" s="1">
         <v>-1.31793165206909</v>
@@ -3863,12 +9200,12 @@
         <v>-0.95881646871566695</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C87" s="1">
         <v>-0.98715603351592995</v>
@@ -3889,12 +9226,12 @@
         <v>-1.39940774440765</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C88" s="1">
         <v>1.4126822948455799</v>
@@ -3915,12 +9252,12 @@
         <v>1.84364891052246</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C89" s="1">
         <v>0.65119045972823997</v>
@@ -3941,12 +9278,12 @@
         <v>0.78656941652297896</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C90" s="1">
         <v>1.0455178022384599</v>
@@ -3967,12 +9304,12 @@
         <v>0.23561884462833399</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1">
         <v>0.61699867248535101</v>
@@ -3993,12 +9330,12 @@
         <v>-0.16439051926136</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C92" s="1">
         <v>-0.70173281431198098</v>
@@ -4019,12 +9356,12 @@
         <v>0.14954210817813801</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C93" s="1">
         <v>1.02263760566711</v>
@@ -4045,12 +9382,12 @@
         <v>1.42477190494537</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C94" s="1">
         <v>-1.17187058925628</v>
@@ -4071,12 +9408,12 @@
         <v>-0.50172621011733998</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C95" s="1">
         <v>-0.36065432429313599</v>
@@ -4097,12 +9434,12 @@
         <v>-0.85201287269592196</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C96" s="1">
         <v>-0.37423649430274902</v>
@@ -4123,12 +9460,12 @@
         <v>-0.95429718494415205</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C97" s="1">
         <v>-1.22133135795593</v>
@@ -4149,12 +9486,12 @@
         <v>-1.32557249069213</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C98" s="1">
         <v>1.1460160017013501</v>
@@ -4175,12 +9512,12 @@
         <v>0.33641356229782099</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C99" s="1">
         <v>0.896731376647949</v>
@@ -4201,12 +9538,12 @@
         <v>0.45259025692939697</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C100" s="1">
         <v>0.79605978727340598</v>
@@ -4227,12 +9564,12 @@
         <v>0.60410946607589699</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C101" s="1">
         <v>-0.58918666839599598</v>
@@ -4253,12 +9590,12 @@
         <v>-0.28942826390266402</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C102" s="1">
         <v>-1.73943638801574</v>
@@ -4279,12 +9616,12 @@
         <v>-0.98267388343811002</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C103" s="1">
         <v>-0.499099761247634</v>
@@ -4305,12 +9642,12 @@
         <v>-1.1089171171188299</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C104" s="1">
         <v>-4.3292719870805699E-2</v>
@@ -4331,12 +9668,12 @@
         <v>-0.85099583864212003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C105" s="1">
         <v>-1.52082455158233</v>
@@ -4357,12 +9694,12 @@
         <v>-1.55271124839782</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C106" s="1">
         <v>0.85839533805847101</v>
@@ -4383,12 +9720,12 @@
         <v>0.53620278835296598</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C107" s="1">
         <v>1.31996774673461</v>
@@ -4409,12 +9746,12 @@
         <v>2.0077097415924001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C108" s="1">
         <v>8.7836496531963296E-3</v>
@@ -4435,12 +9772,12 @@
         <v>-0.335543483495712</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C109" s="1">
         <v>8.4392920136451693E-2</v>
@@ -4461,12 +9798,12 @@
         <v>-0.10330809652805301</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C110" s="1">
         <v>0.92335963249206499</v>
@@ -4487,12 +9824,12 @@
         <v>0.497895687818527</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C111" s="1">
         <v>1.56690645217895</v>
@@ -4513,12 +9850,12 @@
         <v>2.0877549648284899</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C112" s="1">
         <v>0.81332457065582198</v>
@@ -4539,12 +9876,12 @@
         <v>0.32858711481094299</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C113" s="1">
         <v>-0.12008149921894</v>
@@ -4565,12 +9902,12 @@
         <v>-0.51903927326202304</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C114" s="1">
         <v>-5.0662145018577499E-2</v>
@@ -4591,12 +9928,12 @@
         <v>0.71568179130554099</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C115" s="1">
         <v>-0.66304266452789296</v>
@@ -4617,12 +9954,12 @@
         <v>-0.21640342473983701</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C116" s="1">
         <v>-0.106641933321952</v>
@@ -4643,12 +9980,12 @@
         <v>-0.72675019502639704</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C117" s="1">
         <v>-0.30945143103599498</v>
@@ -4669,12 +10006,12 @@
         <v>-1.00072681903839</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C118" s="1">
         <v>-0.660453140735626</v>
@@ -4695,12 +10032,12 @@
         <v>-0.89300113916396995</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C119" s="1">
         <v>-5.9177745133638304E-3</v>
@@ -4721,12 +10058,12 @@
         <v>-0.86285173892974798</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C120" s="1">
         <v>1.1460160017013501</v>
@@ -4747,12 +10084,12 @@
         <v>-7.4099443852901403E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C121" s="1">
         <v>-9.2952810227870906E-3</v>
@@ -4773,12 +10110,12 @@
         <v>-0.36481609940528797</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C122" s="1">
         <v>-0.30918270349502502</v>
@@ -4799,12 +10136,12 @@
         <v>-0.69533103704452504</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C123" s="1">
         <v>1.1233166456222501</v>
@@ -4825,12 +10162,12 @@
         <v>0.57990181446075395</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C124" s="1">
         <v>-0.88732159137725797</v>
@@ -4851,12 +10188,12 @@
         <v>-0.58829396963119496</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C125" s="1">
         <v>0.262546896934509</v>
@@ -4877,12 +10214,12 @@
         <v>-0.427789747714996</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C126" s="1">
         <v>8.0133907496929099E-2</v>
@@ -4903,12 +10240,12 @@
         <v>2.2798713296651799E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C127" s="1">
         <v>-0.46744582056999201</v>
@@ -4929,12 +10266,12 @@
         <v>-0.78137969970703103</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C128" s="1">
         <v>-0.85407739877700795</v>
@@ -4955,12 +10292,12 @@
         <v>-0.807253837585449</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C129" s="1">
         <v>0.76059949398040705</v>
@@ -4981,12 +10318,12 @@
         <v>0.26963451504707298</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C130" s="1">
         <v>-5.80920130014419E-2</v>
@@ -5007,12 +10344,12 @@
         <v>-0.74338918924331598</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C131" s="1">
         <v>-8.3687983453273704E-2</v>
@@ -5033,12 +10370,12 @@
         <v>0.31397646665573098</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C132" s="1">
         <v>0.48627343773841802</v>
@@ -5059,12 +10396,12 @@
         <v>0.33995985984802202</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C133" s="1">
         <v>-0.58451563119888295</v>
@@ -5085,12 +10422,12 @@
         <v>-0.579814553260803</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C134" s="1">
         <v>-0.40792757272720298</v>
@@ -5111,12 +10448,12 @@
         <v>-1.0448904037475499</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C135" s="1">
         <v>-1.0830651521682699</v>
@@ -5137,12 +10474,12 @@
         <v>-1.06336033344268</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C136" s="1">
         <v>1.5964440107345499</v>
@@ -5163,12 +10500,12 @@
         <v>2.0090262889861998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C137" s="1">
         <v>1.7325470447540201</v>
@@ -5189,12 +10526,12 @@
         <v>2.0899066925048801</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C138" s="1">
         <v>-0.131958097219467</v>
@@ -5215,12 +10552,12 @@
         <v>-0.673650503158569</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C139" s="1">
         <v>0.660957992076873</v>
@@ -5241,12 +10578,12 @@
         <v>-0.55390930175781194</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C140" s="1">
         <v>1.62350130081176</v>
@@ -5267,12 +10604,12 @@
         <v>2.1746959686279199</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C141" s="1">
         <v>-1.02610659599304</v>
@@ -5293,12 +10630,12 @@
         <v>0.24608282744884399</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C142" s="1">
         <v>-0.80069333314895597</v>
@@ -5319,12 +10656,12 @@
         <v>-0.79073375463485696</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C143" s="1">
         <v>0.58050060272216697</v>
@@ -5345,12 +10682,12 @@
         <v>-0.56702697277069003</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C144" s="1">
         <v>1.1460160017013501</v>
@@ -5371,12 +10708,12 @@
         <v>-0.55390930175781194</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C145" s="1">
         <v>0.23453412950038899</v>
@@ -5397,12 +10734,12 @@
         <v>-0.54010522365570002</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C146" s="1">
         <v>3.79876606166362E-2</v>
@@ -5423,12 +10760,12 @@
         <v>-0.54481542110443104</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C147" s="1">
         <v>4.3219000101089401E-2</v>
@@ -5449,12 +10786,12 @@
         <v>-0.87600952386856001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C148" s="1">
         <v>0.72383773326873702</v>
@@ -5475,12 +10812,12 @@
         <v>0.64142185449600198</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C149" s="1">
         <v>0.49197277426719599</v>
@@ -5501,12 +10838,12 @@
         <v>4.0170639753341598E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C150" s="1">
         <v>-2.2020452022552401</v>
@@ -5527,12 +10864,12 @@
         <v>-1.56625616550445</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C151" s="1">
         <v>1.20460665225982</v>
@@ -5553,12 +10890,12 @@
         <v>0.84983038902282704</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C152" s="1">
         <v>5.3769711405038799E-2</v>
@@ -5579,12 +10916,12 @@
         <v>-0.84746462106704701</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C153" s="1">
         <v>-1.1950948238372801</v>
@@ -5605,12 +10942,12 @@
         <v>0.72489446401596003</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B154" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C154" s="1">
         <v>0.45778053998947099</v>
@@ -5631,12 +10968,12 @@
         <v>-0.12165043503046</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C155" s="1">
         <v>-1.0580073595046899</v>
@@ -5657,12 +10994,12 @@
         <v>-0.84511333703994695</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C156" s="1">
         <v>-1.12991631031036</v>
@@ -5683,12 +11020,12 @@
         <v>0.57825767993927002</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C157" s="1">
         <v>0.76391470432281405</v>
@@ -5709,12 +11046,12 @@
         <v>0.64238590002059903</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C158" s="1">
         <v>-1.64423179626464</v>
@@ -5735,12 +11072,12 @@
         <v>0.35969617962837203</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C159" s="1">
         <v>-1.8410441875457699</v>
@@ -5761,12 +11098,12 @@
         <v>-1.4269329309463501</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C160" s="1">
         <v>0.23969428241252799</v>
@@ -5787,12 +11124,12 @@
         <v>-2.47014313936233E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C161" s="1">
         <v>-5.9108868241310099E-2</v>
@@ -5813,12 +11150,12 @@
         <v>2.1745240688323899</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C162" s="1">
         <v>0.53434270620346003</v>
@@ -5839,12 +11176,12 @@
         <v>-4.9461983144283199E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C163" s="1">
         <v>-0.179168626666069</v>
@@ -5865,12 +11202,12 @@
         <v>-0.49216982722282399</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B164" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C164" s="1">
         <v>4.1806377470493303E-2</v>
@@ -5891,12 +11228,12 @@
         <v>-0.59110766649246205</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C165" s="1">
         <v>-1.83313500881195</v>
@@ -5917,12 +11254,12 @@
         <v>-1.8000848293304399</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C166" s="1">
         <v>0.15832768380641901</v>
@@ -5943,12 +11280,12 @@
         <v>0.183871164917945</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C167" s="1">
         <v>0.31585073471069303</v>
@@ -5969,12 +11306,12 @@
         <v>-0.21148443222045801</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C168" s="1">
         <v>0.87824100255966098</v>
@@ -5995,12 +11332,12 @@
         <v>0.36291983723640397</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C169" s="1">
         <v>0.991061091423034</v>
@@ -6021,12 +11358,12 @@
         <v>0.87021750211715598</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B170" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C170" s="1">
         <v>1.6110545396804801</v>
@@ -6047,12 +11384,12 @@
         <v>2.1395781040191602</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C171" s="1">
         <v>-1.33905005455017</v>
@@ -6073,12 +11410,12 @@
         <v>-0.21787239611148801</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C172" s="1">
         <v>0.211649179458618</v>
@@ -6099,12 +11436,12 @@
         <v>0.70268625020980802</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C173" s="1">
         <v>-1.9584492444992001</v>
@@ -6125,12 +11462,12 @@
         <v>-1.6268121004104601</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C174" s="1">
         <v>-1.4544701576232899</v>
@@ -6151,12 +11488,12 @@
         <v>-1.4103934764862001</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C175" s="1">
         <v>-0.74313592910766602</v>
@@ -6177,12 +11514,12 @@
         <v>-0.72753739356994596</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C176" s="1">
         <v>-1.00558161735534</v>
@@ -6203,12 +11540,12 @@
         <v>-0.39880406856536799</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C177" s="1">
         <v>-1.68939781188964</v>
@@ -6229,12 +11566,12 @@
         <v>-1.4151018857955899</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C178" s="1">
         <v>-2.14371657371521</v>
@@ -6255,12 +11592,12 @@
         <v>-1.3577418327331501</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C179" s="1">
         <v>0.33976292610168402</v>
@@ -6281,12 +11618,12 @@
         <v>-0.47358506917953402</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C180" s="1">
         <v>0.56284791231155296</v>
@@ -6307,12 +11644,12 @@
         <v>-7.0895254611968897E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C181" s="1">
         <v>0.56560927629470803</v>
@@ -6333,12 +11670,12 @@
         <v>-0.31726703047752303</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C182" s="1">
         <v>0.21081501245498599</v>
@@ -6359,12 +11696,12 @@
         <v>-5.3486328572034801E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C183" s="1">
         <v>-0.83293938636779696</v>
@@ -6385,12 +11722,12 @@
         <v>-0.33538377285003601</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C184" s="1">
         <v>1.1460160017013501</v>
@@ -6411,12 +11748,12 @@
         <v>2.8579855337738901E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C185" s="1">
         <v>0.97747200727462702</v>
@@ -6437,12 +11774,12 @@
         <v>1.0276575088500901</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C186" s="1">
         <v>-0.36448100209236101</v>
@@ -6463,12 +11800,12 @@
         <v>-0.44798526167869501</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C187" s="1">
         <v>-0.66664963960647505</v>
@@ -6489,12 +11826,12 @@
         <v>-1.0373569726943901</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B188" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C188" s="1">
         <v>-1.3729650527238801E-2</v>
@@ -6515,12 +11852,12 @@
         <v>-0.87369084358215299</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B189" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C189" s="1">
         <v>1.2123502492904601</v>
@@ -6541,12 +11878,12 @@
         <v>1.2655344009399401</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B190" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C190" s="1">
         <v>1.03932881355285</v>
@@ -6567,12 +11904,12 @@
         <v>1.3232178688049301</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C191" s="1">
         <v>-1.61598849296569</v>
@@ -6593,12 +11930,12 @@
         <v>-1.06871378421783</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C192" s="1">
         <v>0.87800610065460205</v>
@@ -6619,12 +11956,12 @@
         <v>0.76882547140121404</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B193" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C193" s="1">
         <v>-1.41439533233642</v>
@@ -6645,12 +11982,12 @@
         <v>-1.46751201152801</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B194" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C194" s="1">
         <v>-1.44550144672393</v>
@@ -6671,12 +12008,12 @@
         <v>-0.48535665869712802</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B195" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C195" s="1">
         <v>0.53672516345977705</v>
@@ -6697,12 +12034,12 @@
         <v>-0.16294240951538</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C196" s="1">
         <v>-0.90176433324813798</v>
@@ -6723,12 +12060,12 @@
         <v>-0.19542033970355899</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C197" s="1">
         <v>1.30592513084411</v>
@@ -6749,12 +12086,12 @@
         <v>1.1023875474929801</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B198" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C198" s="1">
         <v>-1.75074851512908</v>
@@ -6775,12 +12112,12 @@
         <v>-1.6379712820053101</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C199" s="1">
         <v>1.83187751099467E-3</v>
@@ -6801,12 +12138,12 @@
         <v>-0.37021481990814198</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C200" s="1">
         <v>0.65738987922668402</v>
@@ -6827,12 +12164,12 @@
         <v>-2.15689744800329E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C201" s="1">
         <v>-1.5124083757400499</v>
@@ -6853,12 +12190,12 @@
         <v>-1.5033982992172199</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C202" s="1">
         <v>-0.32046312093734702</v>
@@ -6879,12 +12216,12 @@
         <v>-0.65613645315170199</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B203" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C203" s="1">
         <v>-1.1347563266754099</v>
